--- a/experiments/roberta/results/four_best_context_concat.xlsx
+++ b/experiments/roberta/results/four_best_context_concat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhysb\Git_Repositories\iTA\experiments\roberta\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87830D16-9BE3-44AB-A040-03D454220FC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED4CDF7-DD6D-40B7-B460-6391237B977F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2264,7 +2264,7 @@
   <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D116" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+      <selection activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5991,7 +5991,7 @@
         <v>0.153869761591372</v>
       </c>
       <c r="F117">
-        <f t="shared" ref="E117:I117" si="0">AVERAGE(F2:F116)</f>
+        <f t="shared" ref="F117:I117" si="0">AVERAGE(F2:F116)</f>
         <v>0.26295888112938909</v>
       </c>
       <c r="G117">

--- a/experiments/roberta/results/four_best_context_concat.xlsx
+++ b/experiments/roberta/results/four_best_context_concat.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhysb\Git_Repositories\iTA\experiments\roberta\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhysb\Git_Repositories\iLFQA\experiments\roberta\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED4CDF7-DD6D-40B7-B460-6391237B977F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B722A18E-5815-483F-8F9E-FA01FD94C606}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="averages" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="469">
   <si>
     <t>Question</t>
   </si>
@@ -1882,7 +1883,7 @@
     <t>inf</t>
   </si>
   <si>
-    <t>total average time:</t>
+    <t>total_time</t>
   </si>
 </sst>
 </file>
@@ -2261,10 +2262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J119"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D116" workbookViewId="0">
-      <selection activeCell="G116" sqref="G116"/>
+    <sheetView topLeftCell="D116" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5985,43 +5986,76 @@
         <v>90.056067774576604</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E117">
-        <f>AVERAGE(E2:E116)</f>
-        <v>0.153869761591372</v>
-      </c>
-      <c r="F117">
-        <f t="shared" ref="F117:I117" si="0">AVERAGE(F2:F116)</f>
-        <v>0.26295888112938909</v>
-      </c>
-      <c r="G117">
-        <f t="shared" si="0"/>
-        <v>1.567328579529468</v>
-      </c>
-      <c r="H117">
-        <f t="shared" si="0"/>
-        <v>8.2341418162636053</v>
-      </c>
-      <c r="I117">
-        <f t="shared" si="0"/>
-        <v>0.47878182660157304</v>
-      </c>
-      <c r="J117">
-        <f>AVERAGE(J2:J116)</f>
-        <v>73.626700210002099</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D119" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="E119">
-        <f>SUM(E117:H117)</f>
-        <v>10.218299038513834</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1AF758-E747-48A0-9D71-EFA3470AC131}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F1" t="s">
+        <v>465</v>
+      </c>
+      <c r="G1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>AVERAGE(Sheet1!E2:E116)</f>
+        <v>0.153869761591372</v>
+      </c>
+      <c r="B2">
+        <f>AVERAGE(Sheet1!F2:F116)</f>
+        <v>0.26295888112938909</v>
+      </c>
+      <c r="C2">
+        <f>AVERAGE(Sheet1!G2:G116)</f>
+        <v>1.567328579529468</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(Sheet1!H2:H116)</f>
+        <v>8.2341418162636053</v>
+      </c>
+      <c r="E2">
+        <f>SUM(A2:D2)</f>
+        <v>10.218299038513834</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGE(Sheet1!I2:I116)</f>
+        <v>0.47878182660157304</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(Sheet1!J2:J116)</f>
+        <v>73.626700210002099</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>